--- a/Excel_data/v1/wristband_test.xlsx
+++ b/Excel_data/v1/wristband_test.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Ben50\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Ben50\Excel_data\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0F4D5A-B37A-4791-B79F-ADD0954CF968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F0C6F6-3BF2-4665-B520-E204566EBA79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="random_1" sheetId="2" r:id="rId2"/>
+    <sheet name="random_1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -605,18 +604,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
